--- a/reference/记录.xlsx
+++ b/reference/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18210" windowHeight="11355" activeTab="1"/>
+    <workbookView windowWidth="23805" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>状态</t>
   </si>
@@ -82,6 +82,35 @@
 接口签名：ResultDTO&lt;Long&gt; runJob(Long jobId, String instanceParams, long delayMS)
 入参：任务ID + 任务实例参数（Processor#process方法入参TaskContext对象的instanceParams字段）+ 延迟执行时间
 返回值：根据success判断操作是否成功，操作成功返回对应的任务实例ID(instanceId)</t>
+  </si>
+  <si>
+    <t>rule-engine使用</t>
+  </si>
+  <si>
+    <r>
+      <t>新建温度报警节点并测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：
+https://blog.csdn.net/Ls101624/article/details/107153939?utm_medium=distribute.pc_aggpage_search_result.none-task-blog-2~all~sobaiduend~default-1-107153939.nonecase&amp;utm_term=thingsboard%20%E6%B7%BB%E5%8A%A0%E8%AE%BE%E5%A4%87&amp;spm=1000.2123.3001.4430
+从设备推送数据：
+4.1 使用HTTP接口单点推送
+模拟数据推送
+HTTP协议api接口如下，其中 $ACCESS_TOKEN 需要替换成设备具体的访问令牌；
+curl -v -X POST -d "{\"temperature\": 25}" http://localhost:8080/api/v1/$ACCESS_TOKEN/telemetry --header "Content-Type:application/json"
+上面指令操作后成功保存到了ts_kv_latest表</t>
+    </r>
+  </si>
+  <si>
+    <t>要在TbRunJobNode里面查到当前设备是属于哪个用户的，然后把instanceParams参数填上。
+问题1：没有前端js辅助，是否无法映射上TbRunJobNodeConfiguration的属性？</t>
   </si>
   <si>
     <t>powerjob调研及扩展</t>
@@ -158,12 +187,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +201,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -182,6 +239,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -189,30 +254,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,50 +323,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -278,32 +330,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,13 +361,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,37 +451,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,127 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,6 +552,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,26 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,21 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -624,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +672,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -773,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1189,13 +1225,13 @@
       </c>
     </row>
     <row r="9" ht="109" customHeight="1" spans="1:3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>1109</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1212,10 +1248,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1248,71 +1284,82 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="81" spans="1:4">
+    <row r="3" ht="158" customHeight="1" spans="1:5">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" ht="81" spans="1:4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:2">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="105.5" customHeight="1" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:2">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="105.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="105.5" customHeight="1" spans="1:2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>17813190820</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" ht="67.5" spans="1:4">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B9" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:4">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/reference/记录.xlsx
+++ b/reference/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23805" windowHeight="12090" activeTab="1"/>
+    <workbookView windowWidth="24450" windowHeight="11355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="132">
   <si>
     <t>状态</t>
+  </si>
+  <si>
+    <t>问题</t>
   </si>
   <si>
     <t>所有的配置文件参数规范、命名规范</t>
@@ -49,6 +52,14 @@
   </si>
   <si>
     <t>2海客的现在cloudgateway拉取到信息，然后通过mqtt发给transport,transport处理方法会通过kafka发给application。总结：cloudgateway-&gt;transport-&gt;application。</t>
+  </si>
+  <si>
+    <t>目前会产生垃圾数据，原因待查</t>
+  </si>
+  <si>
+    <t>任务列表：
+1、power-worker容器化部署测试
+2、双worker测试job是随机分配，还是固定在一台worker机器上运行。可部署到236、237上测试。</t>
   </si>
   <si>
     <t>描述</t>
@@ -88,6 +99,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>新建温度报警节点并测试</t>
     </r>
     <r>
@@ -113,6 +131,9 @@
 问题1：没有前端js辅助，是否无法映射上TbRunJobNodeConfiguration的属性？</t>
   </si>
   <si>
+    <t>一个作者遇到的configDirective配置指令不管用的描述：https://stackoom.com/question/3kz03/Thingsboard%E8%87%AA%E5%AE%9A%E4%B9%89%E8%A7%84%E5%88%99%E8%8A%82%E7%82%B9-%E5%AE%9A%E4%B9%89%E7%9A%84%E9%85%8D%E7%BD%AE%E6%8C%87%E4%BB%A4-myTestNodeConfig-%E4%B8%8D%E5%8F%AF%E7%94%A8</t>
+  </si>
+  <si>
     <t>powerjob调研及扩展</t>
   </si>
   <si>
@@ -123,11 +144,6 @@
 </t>
   </si>
   <si>
-    <t>任务列表：
-1、power-worker容器化部署测试
-2、双worker测试job是随机分配，还是固定在一台worker机器上运行。可部署到236、237上测试。</t>
-  </si>
-  <si>
     <t>akka remote用法</t>
   </si>
   <si>
@@ -137,6 +153,10 @@
     <t xml:space="preserve">https://kdocs.cn/l/cuxv270Z9HFV
 [金山文档] IoT平台三期规划20200911.pptx
 </t>
+  </si>
+  <si>
+    <t>三期进度记录表：https://kdocs.cn/l/crI7HLpeSEmV
+[金山文档] IoT云平台项目三期20200911.xls</t>
   </si>
   <si>
     <t>控制设备API</t>
@@ -181,16 +201,298 @@
     <t>DeviceActorMessageProcessor的第227行：handlePostTelemetryRequest
 第328行：pushToRuleEngine</t>
   </si>
+  <si>
+    <t>1ea051e4365e35086dcf5288b06b6e5</t>
+  </si>
+  <si>
+    <t>1ea051e4359d56086dcf5288b06b6e5</t>
+  </si>
+  <si>
+    <t>{"layoutX":824,"layoutY":156}</t>
+  </si>
+  <si>
+    <t>{"defaultTTL":0}</t>
+  </si>
+  <si>
+    <t>com.hachismart.rule.engine.telemetry.TbMsgTimeseriesNode</t>
+  </si>
+  <si>
+    <t>Save Timeseries</t>
+  </si>
+  <si>
+    <t>save timeseries</t>
+  </si>
+  <si>
+    <t>1ea051e436b137086dcf5288b06b6e5</t>
+  </si>
+  <si>
+    <t>{"layoutX":825,"layoutY":52}</t>
+  </si>
+  <si>
+    <t>{"scope":"CLIENT_SCOPE"}</t>
+  </si>
+  <si>
+    <t>com.hachismart.rule.engine.telemetry.TbMsgAttributesNode</t>
+  </si>
+  <si>
+    <t>Save Client Attributes</t>
+  </si>
+  <si>
+    <t>save client attributes</t>
+  </si>
+  <si>
+    <t>1ea051e436c4bf086dcf5288b06b6e5</t>
+  </si>
+  <si>
+    <t>{"layoutX":347,"layoutY":149}</t>
+  </si>
+  <si>
+    <t>{"version":0}</t>
+  </si>
+  <si>
+    <t>com.hachismart.rule.engine.filter.TbMsgTypeSwitchNode</t>
+  </si>
+  <si>
+    <t>Message Type Switch</t>
+  </si>
+  <si>
+    <t>message type switch</t>
+  </si>
+  <si>
+    <t>1ea051e436d847086dcf5288b06b6e5</t>
+  </si>
+  <si>
+    <t>{"layoutX":825,"layoutY":266}</t>
+  </si>
+  <si>
+    <t>{"jsScript":"return 'Incoming message:' + JSON.stringify(msg) + 'Incoming metadata:' + JSON.stringify(metadata);"}</t>
+  </si>
+  <si>
+    <t>com.hachismart.rule.engine.action.TbLogNode</t>
+  </si>
+  <si>
+    <t>Log RPC from Device</t>
+  </si>
+  <si>
+    <t>log rpc from device</t>
+  </si>
+  <si>
+    <t>1ea051e436ee40086dcf5288b06b6e5</t>
+  </si>
+  <si>
+    <t>{"layoutX":825,"layoutY":379}</t>
+  </si>
+  <si>
+    <t>Log Other</t>
+  </si>
+  <si>
+    <t>log other</t>
+  </si>
+  <si>
+    <t>1ea051e4370439086dcf5288b06b6e5</t>
+  </si>
+  <si>
+    <t>{"layoutX":825,"layoutY":468}</t>
+  </si>
+  <si>
+    <t>{"timeoutInSeconds":60}</t>
+  </si>
+  <si>
+    <t>com.hachismart.rule.engine.rpc.TbSendRPCRequestNode</t>
+  </si>
+  <si>
+    <t>RPC Call Request</t>
+  </si>
+  <si>
+    <t>rpc call request</t>
+  </si>
+  <si>
+    <t>1ea18c2cfc297a086dcf5288b06b6e5</t>
+  </si>
+  <si>
+    <t>{"layoutX":505,"layoutY":449}</t>
+  </si>
+  <si>
+    <t>{"jsScript":"return msg.temperature &gt; 30;"}</t>
+  </si>
+  <si>
+    <t>com.hachismart.rule.engine.filter.TbJsFilterNode</t>
+  </si>
+  <si>
+    <t>高温</t>
+  </si>
+  <si>
+    <t>1ea18c2cfc35af086dcf5288b06b6e5</t>
+  </si>
+  <si>
+    <t>{"layoutX":857,"layoutY":553}</t>
+  </si>
+  <si>
+    <t>{"alarmType":"General Alarm","alarmDetailsBuildJs":"var details = {};if(metadata.prevAlarmDetails) { details = JSON.parse(metadata.prevAlarmDetails);}return details;","severity":"CRITICAL","propagate":false,"useMessageAlarmData":false}</t>
+  </si>
+  <si>
+    <t>com.hachismart.rule.engine.action.TbCreateAlarmNode</t>
+  </si>
+  <si>
+    <t>高温报警</t>
+  </si>
+  <si>
+    <t>1ea18cbdde4847086dcf5288b06b6e5</t>
+  </si>
+  <si>
+    <t>{"layoutX":836,"layoutY":694}</t>
+  </si>
+  <si>
+    <t>{"alarmType":"General Alarm","alarmDetailsBuildJs":"var details = {};if(metadata.prevAlarmDetails) { details = JSON.parse(metadata.prevAlarmDetails);}return details;"}</t>
+  </si>
+  <si>
+    <t>com.hachismart.rule.engine.action.TbClearAlarmNode</t>
+  </si>
+  <si>
+    <t>清除警报</t>
+  </si>
+  <si>
+    <t>1eb2c78e1e76cb0a1b7254e61a0c0c5</t>
+  </si>
+  <si>
+    <t>1eb2beca7b2c8008274976192e20cd1</t>
+  </si>
+  <si>
+    <t>{"description":"miaoshu","layoutX":736,"layoutY":177}</t>
+  </si>
+  <si>
+    <t>{"restEndpointUrlPattern":"http://localhost/api/xxxx","requestMethod":"POST","headers":{"key1":"value1"},"useSimpleClientHttpFactory":false,"readTimeoutMs":0,"maxParallelRequestsCount":0,"useRedisQueueForMsgPersistence":false,"trimQueue":false,"maxQueueSize":0}</t>
+  </si>
+  <si>
+    <t>com.hachismart.rule.engine.scheduler.TbRunJobNode</t>
+  </si>
+  <si>
+    <t>test_powerjob</t>
+  </si>
+  <si>
+    <t>powerjob</t>
+  </si>
+  <si>
+    <t>RULE_CHAIN</t>
+  </si>
+  <si>
+    <t>RULE_NODE</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t>rule_chain里唯一一条数据</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Root Rule Chain</t>
+  </si>
+  <si>
+    <t>root rule chain</t>
+  </si>
+  <si>
+    <t>1ea10ed66d30360b1f957d240bff40d</t>
+  </si>
+  <si>
+    <t>1eb2beca7d0b0408274976192e20cd1</t>
+  </si>
+  <si>
+    <t>{"layoutX":454,"layoutY":465}</t>
+  </si>
+  <si>
+    <t>org.thingsboard.rule.engine.rpc.TbSendRPCRequestNode</t>
+  </si>
+  <si>
+    <t>1eb2beca7cd7bf08274976192e20cd1</t>
+  </si>
+  <si>
+    <t>{"layoutX":444,"layoutY":373}</t>
+  </si>
+  <si>
+    <t>{"jsScript":"return '\\nIncoming message:\\n' + JSON.stringify(msg) + '\\nIncoming metadata:\\n' + JSON.stringify(metadata);"}</t>
+  </si>
+  <si>
+    <t>org.thingsboard.rule.engine.action.TbLogNode</t>
+  </si>
+  <si>
+    <t>1eb2beca7cabcd08274976192e20cd1</t>
+  </si>
+  <si>
+    <t>{"layoutX":436,"layoutY":285}</t>
+  </si>
+  <si>
+    <t>1eb2beca7c7fdb08274976192e20cd1</t>
+  </si>
+  <si>
+    <t>{"layoutX":97,"layoutY":370}</t>
+  </si>
+  <si>
+    <t>org.thingsboard.rule.engine.filter.TbMsgTypeSwitchNode</t>
+  </si>
+  <si>
+    <t>1eb2beca7c53e908274976192e20cd1</t>
+  </si>
+  <si>
+    <t>{"layoutX":419,"layoutY":58}</t>
+  </si>
+  <si>
+    <t>org.thingsboard.rule.engine.telemetry.TbMsgAttributesNode</t>
+  </si>
+  <si>
+    <t>1eb2beca7bf72308274976192e20cd1</t>
+  </si>
+  <si>
+    <t>{"layoutX":440,"layoutY":172}</t>
+  </si>
+  <si>
+    <t>org.thingsboard.rule.engine.telemetry.TbMsgTimeseriesNode</t>
+  </si>
+  <si>
+    <t>org.thingsboard.rule.engine.scheduler.TbRunJobNode</t>
+  </si>
+  <si>
+    <t>1eb2beca7a24d408274976192e20cd1</t>
+  </si>
+  <si>
+    <t>TENANT</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>RPC Request to Device</t>
+  </si>
+  <si>
+    <t>RPC Request from Device</t>
+  </si>
+  <si>
+    <t>Post telemetry</t>
+  </si>
+  <si>
+    <t>Post attributes</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -203,6 +505,46 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -222,24 +564,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,21 +602,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,15 +610,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,35 +624,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,19 +639,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -361,13 +663,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,49 +783,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,115 +819,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,26 +857,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,26 +881,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,8 +914,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,6 +945,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -660,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,139 +974,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1163,76 +1468,88 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="41.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:4">
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1104</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="109" customHeight="1" spans="1:3">
-      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="109" customHeight="1" spans="1:4">
+      <c r="A9" s="2">
         <v>1109</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1248,10 +1565,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1265,82 +1582,84 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="158" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="158" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" ht="81" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="1:2">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="105.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="105.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1348,19 +1667,22 @@
         <v>17813190820</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" ht="67.5" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="5:5">
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1372,14 +1694,896 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G41" sqref="A27:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="43.625" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="6.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" ht="54" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/reference/记录.xlsx
+++ b/reference/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24450" windowHeight="11355" activeTab="1"/>
+    <workbookView windowWidth="21735" windowHeight="11355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="133">
   <si>
     <t>状态</t>
   </si>
@@ -482,6 +482,10 @@
   </si>
   <si>
     <t>Failure</t>
+  </si>
+  <si>
+    <t>测试powerjob自带的容器化部署，部署容器、测试功能通过。
+分析powerjob的容器源码，发现其容器本质是spring容器，与我们的架构不吻合。故该部署方式保留存档，当前不启用。</t>
   </si>
 </sst>
 </file>
@@ -1104,12 +1108,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1490,7 +1497,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1104</v>
       </c>
       <c r="B2" t="s">
@@ -1498,37 +1505,37 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1567,8 +1574,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1612,10 +1619,10 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1694,10 +1701,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="A27:G41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2583,6 +2590,11 @@
         <v>124</v>
       </c>
     </row>
+    <row r="43" ht="67.5" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/reference/记录.xlsx
+++ b/reference/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="21855" windowHeight="11355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3370,10 +3370,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3398,94 +3398,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3497,23 +3413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3529,7 +3430,106 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3610,7 +3610,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3622,19 +3706,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3646,19 +3760,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3670,31 +3778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3706,91 +3790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3801,6 +3801,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3815,15 +3869,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3848,56 +3893,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3909,10 +3909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3921,133 +3921,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4453,8 +4453,8 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4680,7 +4680,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5230,8 +5230,6 @@
       <c r="F32" t="s">
         <v>98</v>
       </c>
-      <c r="G32"/>
-      <c r="H32"/>
       <c r="I32" t="s">
         <v>97</v>
       </c>
@@ -5248,8 +5246,8 @@
   <sheetPr/>
   <dimension ref="A1:K1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/reference/记录.xlsx
+++ b/reference/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="11355" activeTab="1"/>
+    <workbookView windowWidth="18120" windowHeight="11355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3549,9 +3549,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -3570,9 +3570,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3580,6 +3586,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3594,14 +3616,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3615,55 +3660,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3677,7 +3678,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3693,22 +3708,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3789,7 +3789,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3801,25 +3849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3831,13 +3867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3849,19 +3885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3879,37 +3903,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3921,19 +3921,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3945,31 +3969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3980,6 +3980,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4000,9 +4009,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4010,8 +4021,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4034,8 +4045,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4054,32 +4080,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4088,10 +4088,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4100,137 +4100,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4277,9 +4277,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4658,7 +4655,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>1104</v>
       </c>
       <c r="B2" t="s">
@@ -4666,37 +4663,37 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -4736,7 +4733,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4962,10 +4959,10 @@
       </c>
     </row>
     <row r="28" ht="151.5" spans="1:2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
     </row>
